--- a/kvision/ksample/mytable/result/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/result/014_0e3a2.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,11 +64,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,345 +455,412 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>PURCHASING PURCHASE REQUISITION STATIONARY PLEASEINCLUDEONLYONETYPEOFMATERIALONTHISEQUISITION</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>P.O.1534 REV.10/79 OATE LT-10-79 April 1 19,1988</t>
         </is>
       </c>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>VENDOR FORPURCHASINGDEPARTMENTUSEONLY 2748Patterson Ave., Greensboro,C</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>ORDERNO.</t>
         </is>
       </c>
+      <c r="F2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Piedmont Research hLaboratory2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>NET 15 N/A</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>27407 N/A</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>TERMS F.0.8. VIA SHIPTO(OEPT.BRANCH) Lorilard Research Center N.A. OATEWANTEO</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Thaggard 420E English St., Greensboro, NC 27405</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>As required</t>
         </is>
       </c>
+      <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
+      <c r="F6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>This is youx</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>authorization to prepare cigarette smoke conlensate</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr"/>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>according tq</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>the protocol "Standard Operating Procedure</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>fprthe</t>
         </is>
       </c>
+      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>ofs Smoke Condensate for Mouse Skin Bioassay,'</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>for the.</t>
         </is>
       </c>
+      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>1， 1988 through December 31,</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>1988. Condensate</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>willbe</t>
         </is>
       </c>
+      <c r="F10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>prepared 1 acqording</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>ard. The</t>
         </is>
       </c>
+      <c r="F11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>g to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr"/>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>$1,750/10,000</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate c</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Piedmont will pay the cpst of</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
+      <c r="F13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>consumable qupplies.</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>cigarettes smoked. This work is to be conducted</t>
         </is>
       </c>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>with the Deqember</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>d in accprdance 10， 1984 formal 1 agreement between Piedmont Reseach</t>
         </is>
       </c>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>and Lorillard. All work is to be coordinated</t>
         </is>
       </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr"/>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Mr. Neil 1Thaggard</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>(919) 373-6628.</t>
         </is>
       </c>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr"/>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr"/>
+      <c r="A18" s="2" t="inlineStr"/>
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr"/>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr"/>
+      <c r="A19" s="2" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr"/>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr"/>
+      <c r="A20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr"/>
-      <c r="B21" s="1" t="inlineStr"/>
+      <c r="A21" s="2" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr"/>
-      <c r="E22" s="1" t="inlineStr"/>
+      <c r="A22" s="2" t="inlineStr"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>FOLLOWUPDATE</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>REQUISITIONNO.</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>ISSUEDBY</t>
         </is>
       </c>
+      <c r="F23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr"/>
-      <c r="E24" s="1" t="inlineStr"/>
+      <c r="A24" s="2" t="inlineStr"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>BUDGETNO.</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>ACCT.NO. DEPT. NO.</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>APPROVEDBY</t>
         </is>
       </c>
+      <c r="F25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>8700 A</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/kvision/ksample/mytable/result/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/result/014_0e3a2.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,64 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,7 +122,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -73,6 +131,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -455,412 +517,412 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>PURCHASING PURCHASE REQUISITION STATIONARY PLEASEINCLUDEONLYONETYPEOFMATERIALONTHISEQUISITION</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>P.O.1534 REV.10/79 OATE LT-10-79 April 1 19,1988</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="F1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>VENDOR FORPURCHASINGDEPARTMENTUSEONLY 2748Patterson Ave., Greensboro,C</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>ORDERNO.</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n"/>
+      <c r="F2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Piedmont Research hLaboratory2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>NET 15 N/A</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>27407 N/A</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="3" t="n"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>TERMS F.0.8. VIA SHIPTO(OEPT.BRANCH) Lorilard Research Center N.A. OATEWANTEO</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="3" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Thaggard 420E English St., Greensboro, NC 27405</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>As required</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n"/>
+      <c r="F5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n"/>
+      <c r="F6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>This is youx</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>authorization to prepare cigarette smoke conlensate</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="3" t="n"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr"/>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>according tq</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>the protocol "Standard Operating Procedure</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>fprthe</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n"/>
+      <c r="F8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr"/>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>ofs Smoke Condensate for Mouse Skin Bioassay,'</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>for the.</t>
         </is>
       </c>
-      <c r="F9" s="3" t="n"/>
+      <c r="F9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr"/>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>1， 1988 through December 31,</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>1988. Condensate</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>willbe</t>
         </is>
       </c>
-      <c r="F10" s="3" t="n"/>
+      <c r="F10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>prepared 1 acqording</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>ard. The</t>
         </is>
       </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="F11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr"/>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>g to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="3" t="n"/>
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr"/>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>$1,750/10,000</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate c</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Piedmont will pay the cpst of</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
-      <c r="F13" s="3" t="n"/>
+      <c r="F13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr"/>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>consumable qupplies.</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>cigarettes smoked. This work is to be conducted</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr"/>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>with the Deqember</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>d in accprdance 10， 1984 formal 1 agreement between Piedmont Reseach</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr"/>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>and Lorillard. All work is to be coordinated</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Mr. Neil 1Thaggard</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>(919) 373-6628.</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
-      <c r="B18" s="2" t="inlineStr"/>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
+      <c r="A18" s="4" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr"/>
-      <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
+      <c r="A19" s="4" t="inlineStr"/>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr"/>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
+      <c r="A20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
+      <c r="A21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="3" t="n"/>
+      <c r="A22" s="4" t="inlineStr"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>FOLLOWUPDATE</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>REQUISITIONNO.</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>ISSUEDBY</t>
         </is>
       </c>
-      <c r="F23" s="3" t="n"/>
+      <c r="F23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="3" t="n"/>
+      <c r="A24" s="4" t="inlineStr"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>BUDGETNO.</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ACCT.NO. DEPT. NO.</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>APPROVEDBY</t>
         </is>
       </c>
-      <c r="F25" s="3" t="n"/>
+      <c r="F25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>8700 A</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="3" t="n"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/kvision/ksample/mytable/result/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/result/014_0e3a2.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -113,6 +113,64 @@
       </top>
       <bottom style="thick">
         <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
       </bottom>
     </border>
   </borders>
@@ -122,7 +180,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -135,6 +193,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -517,412 +579,412 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>PURCHASING PURCHASE REQUISITION STATIONARY PLEASEINCLUDEONLYONETYPEOFMATERIALONTHISEQUISITION</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>P.O.1534 REV.10/79 OATE LT-10-79 April 1 19,1988</t>
         </is>
       </c>
-      <c r="F1" s="5" t="n"/>
+      <c r="F1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>VENDOR FORPURCHASINGDEPARTMENTUSEONLY 2748Patterson Ave., Greensboro,C</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>ORDERNO.</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n"/>
+      <c r="F2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Piedmont Research hLaboratory2</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>NET 15 N/A</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>27407 N/A</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="5" t="n"/>
+      <c r="E3" s="6" t="inlineStr"/>
+      <c r="F3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>TERMS F.0.8. VIA SHIPTO(OEPT.BRANCH) Lorilard Research Center N.A. OATEWANTEO</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="5" t="n"/>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Thaggard 420E English St., Greensboro, NC 27405</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>As required</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n"/>
+      <c r="F5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n"/>
+      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr"/>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>This is youx</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>authorization to prepare cigarette smoke conlensate</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="5" t="n"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr"/>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>according tq</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>the protocol "Standard Operating Procedure</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>fprthe</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr"/>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr"/>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>ofs Smoke Condensate for Mouse Skin Bioassay,'</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>for the.</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr"/>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1， 1988 through December 31,</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>1988. Condensate</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>willbe</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr"/>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr"/>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>prepared 1 acqording</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>ard. The</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
+      <c r="F11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr"/>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr"/>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>g to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="5" t="n"/>
+      <c r="D12" s="6" t="inlineStr"/>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr"/>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr"/>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>$1,750/10,000</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate c</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>Piedmont will pay the cpst of</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
+      <c r="F13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr"/>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>consumable qupplies.</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>cigarettes smoked. This work is to be conducted</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr"/>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr"/>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>with the Deqember</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>d in accprdance 10， 1984 formal 1 agreement between Piedmont Reseach</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr"/>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr"/>
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>and Lorillard. All work is to be coordinated</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr"/>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>Mr. Neil 1Thaggard</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>(919) 373-6628.</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr"/>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
+      <c r="A18" s="6" t="inlineStr"/>
+      <c r="B18" s="6" t="inlineStr"/>
+      <c r="C18" s="6" t="inlineStr"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr"/>
-      <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
+      <c r="A19" s="6" t="inlineStr"/>
+      <c r="B19" s="6" t="inlineStr"/>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr"/>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr"/>
-      <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="6" t="inlineStr"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr"/>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="5" t="n"/>
+      <c r="A22" s="6" t="inlineStr"/>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="6" t="inlineStr"/>
+      <c r="F22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>FOLLOWUPDATE</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>REQUISITIONNO.</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>ISSUEDBY</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
+      <c r="F23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="4" t="inlineStr"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="5" t="n"/>
+      <c r="A24" s="6" t="inlineStr"/>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="6" t="inlineStr"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="6" t="inlineStr"/>
+      <c r="F24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>BUDGETNO.</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>ACCT.NO. DEPT. NO.</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>APPROVEDBY</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n"/>
+      <c r="F25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr"/>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>8700 A</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="5" t="n"/>
+      <c r="E26" s="6" t="inlineStr"/>
+      <c r="F26" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="26">
